--- a/DAVID/TNF.DAVID_toJoin.xlsx
+++ b/DAVID/TNF.DAVID_toJoin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\ABRG_GBIRG_OntologyStudy\DAVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\DAVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D1C3083-C7AA-4BBD-B0BF-E10B1284D2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B7BDED29-8063-4FD1-90A8-3C697B85A582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="TNF.DAVID" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="139">
   <si>
     <t>Category</t>
   </si>
@@ -361,6 +361,12 @@
     <t>ENSG00000120875, ENSG00000158050, ENSG00000138166, ENSG00000120129</t>
   </si>
   <si>
+    <t>GO:0045121~membrane raft</t>
+  </si>
+  <si>
+    <t>ENSG00000023445, ENSG00000137462, ENSG00000070961, ENSG00000173391, ENSG00000232810, ENSG00000003402, ENSG00000090339, ENSG00000124145, ENSG00000165029, ENSG00000110330</t>
+  </si>
+  <si>
     <t>R-HSA-209560:R-HSA-209560</t>
   </si>
   <si>
@@ -370,16 +376,64 @@
     <t>R-HSA-112409:R-HSA-112409</t>
   </si>
   <si>
+    <t>h_stressPathway:TNF/Stress Related Signaling</t>
+  </si>
+  <si>
+    <t>ENSG00000034152, ENSG00000136560, ENSG00000232810, ENSG00000109320, ENSG00000177606, ENSG00000173039, ENSG00000100906</t>
+  </si>
+  <si>
+    <t>R-HSA-445989:R-HSA-445989</t>
+  </si>
+  <si>
+    <t>ENSG00000077150, ENSG00000104312, ENSG00000109320, ENSG00000173039, ENSG00000100906</t>
+  </si>
+  <si>
     <t>R-HSA-5357956:R-HSA-5357956</t>
   </si>
   <si>
     <t>ENSG00000023445, ENSG00000118503, ENSG00000232810, ENSG00000056558, ENSG00000110330</t>
   </si>
   <si>
-    <t>R-HSA-445989:R-HSA-445989</t>
-  </si>
-  <si>
-    <t>ENSG00000077150, ENSG00000104312, ENSG00000109320, ENSG00000173039, ENSG00000100906</t>
+    <t>h_cardiacEGFPathway:Role of EGF Receptor Transactivation by GPCRs in Cardiac Hypertrophy</t>
+  </si>
+  <si>
+    <t>ENSG00000078401, ENSG00000109320, ENSG00000177606, ENSG00000170345, ENSG00000136997, ENSG00000173039</t>
+  </si>
+  <si>
+    <t>h_41BBPathway:The 4-1BB-dependent immune response</t>
+  </si>
+  <si>
+    <t>ENSG00000049249, ENSG00000109320, ENSG00000125657, ENSG00000177606, ENSG00000173039, ENSG00000100906</t>
+  </si>
+  <si>
+    <t>h_atmPathway:ATM Signaling Pathway</t>
+  </si>
+  <si>
+    <t>ENSG00000116717, ENSG00000109320, ENSG00000177606, ENSG00000173039, ENSG00000124762, ENSG00000100906</t>
+  </si>
+  <si>
+    <t>h_mspPathway:Msp/Ron Receptor Signaling Pathway</t>
+  </si>
+  <si>
+    <t>ENSG00000184371, ENSG00000125538, ENSG00000232810, ENSG00000108691</t>
+  </si>
+  <si>
+    <t>GO:0005634~nucleus</t>
+  </si>
+  <si>
+    <t>ENSG00000153234, ENSG00000070961, ENSG00000073756, ENSG00000160888, ENSG00000166949, ENSG00000179388, ENSG00000099860, ENSG00000177606, ENSG00000137267, ENSG00000132334, ENSG00000157557, ENSG00000120875, ENSG00000077150, ENSG00000116044, ENSG00000102804, ENSG00000143878, ENSG00000118515, ENSG00000155090, ENSG00000175592, ENSG00000075426, ENSG00000133639, ENSG00000116717, ENSG00000131979, ENSG00000178860, ENSG00000104856, ENSG00000173334, ENSG00000159200, ENSG00000170345, ENSG00000173812, ENSG00000102908, ENSG00000115267, ENSG00000110330, ENSG00000119138, ENSG00000110092, ENSG00000142178, ENSG00000185022, ENSG00000165030, ENSG00000120129, ENSG00000143384, ENSG00000123358, ENSG00000163659, ENSG00000221869, ENSG00000067082, ENSG00000124762, ENSG00000113916, ENSG00000115738, ENSG00000162924, ENSG00000164949, ENSG00000172216, ENSG00000136997, ENSG00000177426, ENSG00000132510, ENSG00000122877, ENSG00000163660, ENSG00000127528, ENSG00000119508, ENSG00000125347, ENSG00000162772, ENSG00000176170, ENSG00000125740, ENSG00000128016, ENSG00000023445, ENSG00000134107, ENSG00000126561, ENSG00000114315, ENSG00000120738, ENSG00000173039, ENSG00000100906, ENSG00000168884, ENSG00000158050, ENSG00000137331, ENSG00000118503, ENSG00000109320, ENSG00000059728, ENSG00000109321, ENSG00000146278</t>
+  </si>
+  <si>
+    <t>h_ranklPathway:Bone Remodelling</t>
+  </si>
+  <si>
+    <t>ENSG00000175592, ENSG00000075426, ENSG00000109320, ENSG00000170345, ENSG00000173039</t>
+  </si>
+  <si>
+    <t>GO:0005667~transcription factor complex</t>
+  </si>
+  <si>
+    <t>ENSG00000166949, ENSG00000162924, ENSG00000119508, ENSG00000177606, ENSG00000171223, ENSG00000123358, ENSG00000170345, ENSG00000173039</t>
   </si>
   <si>
     <t>Hit</t>
@@ -1224,14 +1278,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1275,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1319,7 +1373,7 @@
         <v>9.6276995379972793E-2</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1363,7 +1417,7 @@
         <v>0.36623230293666298</v>
       </c>
       <c r="N3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1407,7 +1461,7 @@
         <v>0.36623230293666298</v>
       </c>
       <c r="N4" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1451,1291 +1505,1291 @@
         <v>0.36623230293666298</v>
       </c>
       <c r="N5" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="E6" s="1">
-        <v>3.1422607687308602E-26</v>
+        <v>8.5984311338607798E-4</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G6">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="H6">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>16792</v>
+        <v>1625</v>
       </c>
       <c r="J6">
-        <v>9.1826048915198104</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6.15568884594376E-23</v>
-      </c>
-      <c r="L6" s="1">
-        <v>6.15568884594376E-23</v>
-      </c>
-      <c r="M6" s="1">
-        <v>5.7503372067774799E-21</v>
+        <v>5.7594936708860702</v>
+      </c>
+      <c r="K6">
+        <v>0.11954065311159601</v>
+      </c>
+      <c r="L6">
+        <v>2.4657061521661899E-2</v>
+      </c>
+      <c r="M6">
+        <v>2.07991539366399</v>
       </c>
       <c r="N6" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>27.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5.05901534722167E-23</v>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1.1741457867457999E-3</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="G7">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="H7">
-        <v>981</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>16792</v>
+        <v>1625</v>
       </c>
       <c r="J7">
-        <v>4.8779663344477697</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9.9106110652072501E-20</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4.9553055326036202E-20</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4.6289990427078204E-18</v>
+        <v>6.8565400843881799</v>
+      </c>
+      <c r="K7">
+        <v>0.159598625196581</v>
+      </c>
+      <c r="L7">
+        <v>2.4657061521661899E-2</v>
+      </c>
+      <c r="M7">
+        <v>2.07991539366399</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>9.5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6.1816628133955999E-16</v>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1.1741457867457999E-3</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="G8">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="H8">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>16792</v>
+        <v>1625</v>
       </c>
       <c r="J8">
-        <v>14.6291897840341</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1.3049561431443999E-12</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4.0366258171473302E-13</v>
-      </c>
-      <c r="M8" s="1">
-        <v>3.7708143161713201E-11</v>
+        <v>6.8565400843881799</v>
+      </c>
+      <c r="K8">
+        <v>0.159598625196581</v>
+      </c>
+      <c r="L8">
+        <v>2.4657061521661899E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.07991539366399</v>
       </c>
       <c r="N8" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>13.5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.3799776704966401E-12</v>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2.4888094499211102E-3</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="H9">
-        <v>421</v>
+        <v>21</v>
       </c>
       <c r="I9">
-        <v>16792</v>
+        <v>1625</v>
       </c>
       <c r="J9">
-        <v>5.5799047419787504</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4.6623908067644402E-9</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.16559406412573E-9</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.0888397842522101E-7</v>
+        <v>5.8770343580470099</v>
+      </c>
+      <c r="K9">
+        <v>0.30843831643449399</v>
+      </c>
+      <c r="L9">
+        <v>4.5731873642300497E-2</v>
+      </c>
+      <c r="M9">
+        <v>3.8576546473777298</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>10.5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.25522985874455E-11</v>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3.2402266743095502E-3</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="G10">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="H10">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>16792</v>
+        <v>1625</v>
       </c>
       <c r="J10">
-        <v>7.1933417649218701</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2.4589940750274701E-8</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4.4705936224061104E-9</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4.1762053746825802E-7</v>
+        <v>11.754068716094</v>
+      </c>
+      <c r="K10">
+        <v>0.381422109941978</v>
+      </c>
+      <c r="L10">
+        <v>5.0078585912834803E-2</v>
+      </c>
+      <c r="M10">
+        <v>4.2243160906064698</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>13.5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.36924766383035E-11</v>
+        <v>2.5</v>
+      </c>
+      <c r="E11">
+        <v>3.40670652468264E-3</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="G11">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="H11">
-        <v>455</v>
+        <v>14</v>
       </c>
       <c r="I11">
-        <v>16792</v>
+        <v>1625</v>
       </c>
       <c r="J11">
-        <v>5.1629448271935301</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2.6823590681956901E-8</v>
-      </c>
-      <c r="L11" s="1">
-        <v>4.4705936224061104E-9</v>
-      </c>
-      <c r="M11" s="1">
-        <v>4.1762053746825802E-7</v>
+        <v>7.3462929475587702</v>
+      </c>
+      <c r="K11">
+        <v>0.39652661421653201</v>
+      </c>
+      <c r="L11">
+        <v>5.0078585912834803E-2</v>
+      </c>
+      <c r="M11">
+        <v>4.2243160906064698</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>6.5</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>2.5124262017373101E-11</v>
+        <v>3.1422607687308602E-26</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>193</v>
       </c>
       <c r="H12">
-        <v>71</v>
+        <v>379</v>
       </c>
       <c r="I12">
         <v>16792</v>
       </c>
       <c r="J12">
-        <v>15.9305261621542</v>
+        <v>9.1826048915198104</v>
       </c>
       <c r="K12" s="1">
-        <v>4.9218377151660702E-8</v>
+        <v>6.15568884594376E-23</v>
       </c>
       <c r="L12" s="1">
-        <v>7.0312041845762803E-9</v>
+        <v>6.15568884594376E-23</v>
       </c>
       <c r="M12" s="1">
-        <v>6.56819992739898E-7</v>
+        <v>5.7503372067774799E-21</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
       <c r="E13" s="1">
-        <v>3.7271642786774302E-11</v>
+        <v>5.05901534722167E-23</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>193</v>
       </c>
       <c r="H13">
-        <v>720</v>
+        <v>981</v>
       </c>
       <c r="I13">
         <v>16792</v>
       </c>
       <c r="J13">
-        <v>3.98773747841105</v>
+        <v>4.8779663344477697</v>
       </c>
       <c r="K13" s="1">
-        <v>7.3015120949371197E-8</v>
+        <v>9.9106110652072501E-20</v>
       </c>
       <c r="L13" s="1">
-        <v>9.1268935274113597E-9</v>
+        <v>4.9553055326036202E-20</v>
       </c>
       <c r="M13" s="1">
-        <v>8.5258882874746202E-7</v>
+        <v>4.6289990427078204E-18</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="E14" s="1">
-        <v>6.3841933764619399E-11</v>
+        <v>6.1816628133955999E-16</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="G14">
         <v>193</v>
       </c>
       <c r="H14">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="I14">
         <v>16792</v>
       </c>
       <c r="J14">
-        <v>9.0188297737899603</v>
+        <v>14.6291897840341</v>
       </c>
       <c r="K14" s="1">
-        <v>1.2506633650932699E-7</v>
+        <v>1.3049561431443999E-12</v>
       </c>
       <c r="L14" s="1">
-        <v>1.35037150155772E-8</v>
+        <v>4.0366258171473302E-13</v>
       </c>
       <c r="M14" s="1">
-        <v>1.26144964157766E-6</v>
+        <v>3.7708143161713201E-11</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>13.5</v>
       </c>
       <c r="E15" s="1">
-        <v>6.8931674403150898E-11</v>
+        <v>2.3799776704966401E-12</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>193</v>
       </c>
       <c r="H15">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="I15">
         <v>16792</v>
       </c>
       <c r="J15">
-        <v>17.401036269430001</v>
+        <v>5.5799047419787504</v>
       </c>
       <c r="K15" s="1">
-        <v>1.3503707008144501E-7</v>
+        <v>4.6623908067644402E-9</v>
       </c>
       <c r="L15" s="1">
-        <v>1.35037150155772E-8</v>
+        <v>1.16559406412573E-9</v>
       </c>
       <c r="M15" s="1">
-        <v>1.26144964157766E-6</v>
+        <v>1.0888397842522101E-7</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>20.5</v>
+        <v>10.5</v>
       </c>
       <c r="E16" s="1">
-        <v>1.72032169095375E-9</v>
+        <v>1.25522985874455E-11</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>193</v>
       </c>
       <c r="H16">
-        <v>1347</v>
+        <v>254</v>
       </c>
       <c r="I16">
-        <v>18224</v>
+        <v>16792</v>
       </c>
       <c r="J16">
-        <v>2.8741051886556499</v>
+        <v>7.1933417649218701</v>
       </c>
       <c r="K16" s="1">
-        <v>3.45784594735221E-7</v>
+        <v>2.4589940750274701E-8</v>
       </c>
       <c r="L16" s="1">
-        <v>3.45784659881705E-7</v>
+        <v>4.4705936224061104E-9</v>
       </c>
       <c r="M16" s="1">
-        <v>3.3202208635407499E-5</v>
+        <v>4.1762053746825802E-7</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>2.5</v>
+        <v>13.5</v>
       </c>
       <c r="E17" s="1">
-        <v>5.92227185710332E-8</v>
+        <v>1.36924766383035E-11</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>193</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>455</v>
       </c>
       <c r="I17">
-        <v>18224</v>
+        <v>16792</v>
       </c>
       <c r="J17">
-        <v>94.424870466321195</v>
+        <v>5.1629448271935301</v>
       </c>
       <c r="K17" s="1">
-        <v>1.19036959451701E-5</v>
+        <v>2.6823590681956901E-8</v>
       </c>
       <c r="L17" s="1">
-        <v>5.9518832163888303E-6</v>
+        <v>4.4705936224061104E-9</v>
       </c>
       <c r="M17" s="1">
-        <v>5.7149923421046997E-4</v>
+        <v>4.1762053746825802E-7</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>6.5</v>
       </c>
       <c r="E18" s="1">
-        <v>3.6114762615785801E-6</v>
+        <v>2.5124262017373101E-11</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>193</v>
       </c>
       <c r="H18">
-        <v>3315</v>
+        <v>71</v>
       </c>
       <c r="I18">
-        <v>18224</v>
+        <v>16792</v>
       </c>
       <c r="J18">
-        <v>1.7660156768965001</v>
+        <v>15.9305261621542</v>
       </c>
       <c r="K18" s="1">
-        <v>7.2564463188184904E-4</v>
+        <v>4.9218377151660702E-8</v>
       </c>
       <c r="L18" s="1">
-        <v>2.4196890952576499E-4</v>
-      </c>
-      <c r="M18">
-        <v>2.3233830616155499E-2</v>
+        <v>7.0312041845762803E-9</v>
+      </c>
+      <c r="M18" s="1">
+        <v>6.56819992739898E-7</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="E19" s="1">
-        <v>1.6572454602608799E-5</v>
+        <v>3.7271642786774302E-11</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>193</v>
       </c>
       <c r="H19">
-        <v>213</v>
+        <v>720</v>
       </c>
       <c r="I19">
-        <v>18224</v>
+        <v>16792</v>
       </c>
       <c r="J19">
-        <v>5.3197110121871098</v>
-      </c>
-      <c r="K19">
-        <v>3.3255490490947601E-3</v>
+        <v>3.98773747841105</v>
+      </c>
+      <c r="K19" s="1">
+        <v>7.3015120949371197E-8</v>
       </c>
       <c r="L19" s="1">
-        <v>6.8142810621605199E-4</v>
-      </c>
-      <c r="M19">
-        <v>6.5430658955073703E-2</v>
+        <v>9.1268935274113597E-9</v>
+      </c>
+      <c r="M19" s="1">
+        <v>8.5258882874746202E-7</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>26.5</v>
+        <v>8.5</v>
       </c>
       <c r="E20" s="1">
-        <v>1.69509479158222E-5</v>
+        <v>6.3841933764619399E-11</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="G20">
         <v>193</v>
       </c>
       <c r="H20">
-        <v>2784</v>
+        <v>164</v>
       </c>
       <c r="I20">
-        <v>18224</v>
+        <v>16792</v>
       </c>
       <c r="J20">
-        <v>1.79759990471085</v>
-      </c>
-      <c r="K20">
-        <v>3.40137159344022E-3</v>
+        <v>9.0188297737899603</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.2506633650932699E-7</v>
       </c>
       <c r="L20" s="1">
-        <v>6.8142810621605199E-4</v>
-      </c>
-      <c r="M20">
-        <v>6.5430658955073703E-2</v>
+        <v>1.35037150155772E-8</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.26144964157766E-6</v>
       </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
-        <v>2.88423375801133E-5</v>
+        <v>6.8931674403150898E-11</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="G21">
         <v>193</v>
       </c>
       <c r="H21">
-        <v>1610</v>
+        <v>60</v>
       </c>
       <c r="I21">
-        <v>18224</v>
+        <v>16792</v>
       </c>
       <c r="J21">
-        <v>2.11136356322208</v>
-      </c>
-      <c r="K21">
-        <v>5.7806210015746099E-3</v>
+        <v>17.401036269430001</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.3503707008144501E-7</v>
       </c>
       <c r="L21" s="1">
-        <v>9.6621830893379697E-4</v>
-      </c>
-      <c r="M21">
-        <v>9.2776185882697898E-2</v>
+        <v>1.35037150155772E-8</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.26144964157766E-6</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>39.5</v>
+        <v>20.5</v>
       </c>
       <c r="E22" s="1">
-        <v>2.3185363318447999E-4</v>
+        <v>1.72032169095375E-9</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="G22">
         <v>193</v>
       </c>
       <c r="H22">
-        <v>5222</v>
+        <v>1347</v>
       </c>
       <c r="I22">
         <v>18224</v>
       </c>
       <c r="J22">
-        <v>1.42848808250466</v>
-      </c>
-      <c r="K22">
-        <v>4.5538511176907402E-2</v>
-      </c>
-      <c r="L22">
-        <v>6.65751146715436E-3</v>
-      </c>
-      <c r="M22">
-        <v>0.63925358863721005</v>
+        <v>2.8741051886556499</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3.45784594735221E-7</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3.45784659881705E-7</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.3202208635407499E-5</v>
       </c>
       <c r="N22" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C23">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>75.5</v>
+        <v>2.5</v>
       </c>
       <c r="E23" s="1">
-        <v>4.4539929806783303E-15</v>
+        <v>5.92227185710332E-8</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="G23">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H23">
-        <v>8785</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J23">
-        <v>1.5271431566965199</v>
+        <v>94.424870466321195</v>
       </c>
       <c r="K23" s="1">
-        <v>1.7585932710062401E-12</v>
+        <v>1.19036959451701E-5</v>
       </c>
       <c r="L23" s="1">
-        <v>1.7637812203486199E-12</v>
+        <v>5.9518832163888303E-6</v>
       </c>
       <c r="M23" s="1">
-        <v>1.6346154239089399E-10</v>
+        <v>5.7149923421046997E-4</v>
       </c>
       <c r="N23" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D24">
-        <v>9.5</v>
+        <v>31</v>
       </c>
       <c r="E24" s="1">
-        <v>1.2091459928876899E-12</v>
+        <v>3.6114762615785801E-6</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="G24">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H24">
-        <v>176</v>
+        <v>3315</v>
       </c>
       <c r="I24">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J24">
-        <v>9.5914772727272695</v>
+        <v>1.7660156768965001</v>
       </c>
       <c r="K24" s="1">
-        <v>4.7882098286322596E-10</v>
+        <v>7.2564463188184904E-4</v>
       </c>
       <c r="L24" s="1">
-        <v>2.3941090659176402E-10</v>
-      </c>
-      <c r="M24" s="1">
-        <v>2.21878289694892E-8</v>
+        <v>2.4196890952576499E-4</v>
+      </c>
+      <c r="M24">
+        <v>2.3233830616155499E-2</v>
       </c>
       <c r="N24" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C25">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>18.5</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1">
-        <v>1.2669505264602599E-10</v>
+        <v>1.6572454602608799E-5</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G25">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H25">
-        <v>961</v>
+        <v>213</v>
       </c>
       <c r="I25">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J25">
-        <v>3.4207623637658102</v>
-      </c>
-      <c r="K25" s="1">
-        <v>5.0171257925946102E-8</v>
+        <v>5.3197110121871098</v>
+      </c>
+      <c r="K25">
+        <v>3.3255490490947601E-3</v>
       </c>
       <c r="L25" s="1">
-        <v>1.6723746949275502E-8</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1.54990281070306E-6</v>
+        <v>6.8142810621605199E-4</v>
+      </c>
+      <c r="M25">
+        <v>6.5430658955073703E-2</v>
       </c>
       <c r="N25" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>26.5</v>
       </c>
       <c r="E26" s="1">
-        <v>1.33245209633915E-9</v>
+        <v>1.69509479158222E-5</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="G26">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H26">
-        <v>236</v>
+        <v>2784</v>
       </c>
       <c r="I26">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J26">
-        <v>6.7764942016056997</v>
-      </c>
-      <c r="K26" s="1">
-        <v>5.27650911963384E-7</v>
+        <v>1.79759990471085</v>
+      </c>
+      <c r="K26">
+        <v>3.40137159344022E-3</v>
       </c>
       <c r="L26" s="1">
-        <v>1.3191275753757501E-7</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1.2225247983911699E-5</v>
+        <v>6.8142810621605199E-4</v>
+      </c>
+      <c r="M26">
+        <v>6.5430658955073703E-2</v>
       </c>
       <c r="N26" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1">
-        <v>3.1897119098699198E-9</v>
+        <v>2.88423375801133E-5</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="G27">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H27">
-        <v>49</v>
+        <v>1610</v>
       </c>
       <c r="I27">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J27">
-        <v>18.1321160042964</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1.26312513215598E-6</v>
+        <v>2.11136356322208</v>
+      </c>
+      <c r="K27">
+        <v>5.7806210015746099E-3</v>
       </c>
       <c r="L27" s="1">
-        <v>2.5262518326169798E-7</v>
-      </c>
-      <c r="M27" s="1">
-        <v>2.3412485418445201E-5</v>
+        <v>9.6621830893379697E-4</v>
+      </c>
+      <c r="M27">
+        <v>9.2776185882697898E-2</v>
       </c>
       <c r="N27" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>39.5</v>
       </c>
       <c r="E28" s="1">
-        <v>1.8817913368034101E-8</v>
+        <v>2.3185363318447999E-4</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="G28">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H28">
-        <v>355</v>
+        <v>5222</v>
       </c>
       <c r="I28">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J28">
-        <v>5.00548554484803</v>
-      </c>
-      <c r="K28" s="1">
-        <v>7.4518659869404698E-6</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1.2419822822902501E-6</v>
-      </c>
-      <c r="M28" s="1">
-        <v>1.15102903434475E-4</v>
+        <v>1.42848808250466</v>
+      </c>
+      <c r="K28">
+        <v>4.5538511176907402E-2</v>
+      </c>
+      <c r="L28">
+        <v>6.65751146715436E-3</v>
+      </c>
+      <c r="M28">
+        <v>0.63925358863721005</v>
       </c>
       <c r="N28" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>13.5</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>1.7497770459405399E-7</v>
+        <v>3.4437535657026199E-4</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="G29">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H29">
-        <v>730</v>
+        <v>206</v>
       </c>
       <c r="I29">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J29">
-        <v>3.2861355443403002</v>
-      </c>
-      <c r="K29" s="1">
-        <v>6.9288776485043599E-5</v>
-      </c>
-      <c r="L29" s="1">
-        <v>9.8987387170350904E-6</v>
-      </c>
-      <c r="M29" s="1">
-        <v>9.17383108371686E-4</v>
+        <v>4.5837315760350101</v>
+      </c>
+      <c r="K29">
+        <v>6.6889237003910501E-2</v>
+      </c>
+      <c r="L29">
+        <v>8.6524308338278393E-3</v>
+      </c>
+      <c r="M29">
+        <v>0.83080554772575699</v>
       </c>
       <c r="N29" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D30">
-        <v>6.5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2.8479859951516799E-7</v>
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>3.3444494447514E-3</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="G30">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H30">
-        <v>162</v>
+        <v>5415</v>
       </c>
       <c r="I30">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J30">
-        <v>7.1297270955165697</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1.12773901999818E-4</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1.40975306760008E-5</v>
+        <v>1.3252613398781901</v>
+      </c>
+      <c r="K30">
+        <v>0.49000837653088702</v>
+      </c>
+      <c r="L30">
+        <v>7.4692704266114698E-2</v>
       </c>
       <c r="M30">
-        <v>1.30651357527583E-3</v>
+        <v>7.1719860315224597</v>
       </c>
       <c r="N30" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.22722788351172E-6</v>
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>4.4270417512615604E-3</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="G31">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H31">
-        <v>465</v>
+        <v>193</v>
       </c>
       <c r="I31">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J31">
-        <v>3.8213921901528001</v>
-      </c>
-      <c r="K31" s="1">
-        <v>4.85864469699559E-4</v>
-      </c>
-      <c r="L31" s="1">
-        <v>5.3998026874515702E-5</v>
+        <v>3.91398426803404</v>
+      </c>
+      <c r="K31">
+        <v>0.59008722826927895</v>
+      </c>
+      <c r="L31">
+        <v>8.8983539200357495E-2</v>
       </c>
       <c r="M31">
-        <v>5.0043625916533496E-3</v>
+        <v>8.5441905799348206</v>
       </c>
       <c r="N31" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="D32">
-        <v>10.5</v>
+        <v>75.5</v>
       </c>
       <c r="E32" s="1">
-        <v>1.5218236670397701E-6</v>
+        <v>4.4539929806783303E-15</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="G32">
         <v>190</v>
       </c>
       <c r="H32">
-        <v>518</v>
+        <v>8785</v>
       </c>
       <c r="I32">
         <v>16881</v>
       </c>
       <c r="J32">
-        <v>3.60192034139402</v>
+        <v>1.5271431566965199</v>
       </c>
       <c r="K32" s="1">
-        <v>6.0246107812511596E-4</v>
+        <v>1.7585932710062401E-12</v>
       </c>
       <c r="L32" s="1">
-        <v>6.0264217214774899E-5</v>
-      </c>
-      <c r="M32">
-        <v>5.5850928580359503E-3</v>
+        <v>1.7637812203486199E-12</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1.6346154239089399E-10</v>
       </c>
       <c r="N32" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>9.5</v>
       </c>
       <c r="E33" s="1">
-        <v>1.98434046713999E-28</v>
+        <v>1.2091459928876899E-12</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G33">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="H33">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="I33">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J33">
-        <v>14.6947930574098</v>
+        <v>9.5914772727272695</v>
       </c>
       <c r="K33" s="1">
-        <v>3.4329090081521901E-26</v>
+        <v>4.7882098286322596E-10</v>
       </c>
       <c r="L33" s="1">
-        <v>3.4329090081521901E-26</v>
+        <v>2.3941090659176402E-10</v>
       </c>
       <c r="M33" s="1">
-        <v>2.40105196523939E-24</v>
+        <v>2.21878289694892E-8</v>
       </c>
       <c r="N33" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="E34" s="1">
-        <v>3.40291447539417E-15</v>
+        <v>1.2669505264602599E-10</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G34">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="H34">
-        <v>243</v>
+        <v>961</v>
       </c>
       <c r="I34">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J34">
-        <v>6.0661375661375603</v>
+        <v>3.4207623637658102</v>
       </c>
       <c r="K34" s="1">
-        <v>5.9541260810647105E-13</v>
+        <v>5.0171257925946102E-8</v>
       </c>
       <c r="L34" s="1">
-        <v>2.9435210212159599E-13</v>
+        <v>1.6723746949275502E-8</v>
       </c>
       <c r="M34" s="1">
-        <v>2.0587632576134699E-11</v>
+        <v>1.54990281070306E-6</v>
       </c>
       <c r="N34" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C35">
         <v>18</v>
@@ -2744,174 +2798,174 @@
         <v>9</v>
       </c>
       <c r="E35" s="1">
-        <v>8.65272954102792E-13</v>
+        <v>1.33245209633915E-9</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G35">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="H35">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="I35">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J35">
-        <v>10.1660098522167</v>
+        <v>6.7764942016056997</v>
       </c>
       <c r="K35" s="1">
-        <v>1.4969825379296199E-10</v>
+        <v>5.27650911963384E-7</v>
       </c>
       <c r="L35" s="1">
-        <v>4.5599987597402597E-11</v>
+        <v>1.3191275753757501E-7</v>
       </c>
       <c r="M35" s="1">
-        <v>3.1893632943848102E-9</v>
+        <v>1.2225247983911699E-5</v>
       </c>
       <c r="N35" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>1.0543349733503501E-12</v>
+        <v>3.1897119098699198E-9</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="G36">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="H36">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="I36">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J36">
-        <v>10.050487012987</v>
+        <v>18.1321160042964</v>
       </c>
       <c r="K36" s="1">
-        <v>1.8240753352216599E-10</v>
+        <v>1.26312513215598E-6</v>
       </c>
       <c r="L36" s="1">
-        <v>4.5599987597402597E-11</v>
+        <v>2.5262518326169798E-7</v>
       </c>
       <c r="M36" s="1">
-        <v>3.1893632943848102E-9</v>
+        <v>2.3412485418445201E-5</v>
       </c>
       <c r="N36" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1">
-        <v>2.7502392889294099E-12</v>
+        <v>1.8817913368034101E-8</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G37">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="H37">
-        <v>56</v>
+        <v>355</v>
       </c>
       <c r="I37">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J37">
-        <v>13.161352040816301</v>
+        <v>5.00548554484803</v>
       </c>
       <c r="K37" s="1">
-        <v>4.7579229445204801E-10</v>
+        <v>7.4518659869404698E-6</v>
       </c>
       <c r="L37" s="1">
-        <v>9.5158279396957597E-11</v>
+        <v>1.2419822822902501E-6</v>
       </c>
       <c r="M37" s="1">
-        <v>6.6555790792091702E-9</v>
+        <v>1.15102903434475E-4</v>
       </c>
       <c r="N37" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="E38" s="1">
-        <v>2.5427063481614203E-10</v>
+        <v>1.7497770459405399E-7</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="G38">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="H38">
-        <v>106</v>
+        <v>730</v>
       </c>
       <c r="I38">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J38">
-        <v>7.8802560646900197</v>
+        <v>3.2861355443403002</v>
       </c>
       <c r="K38" s="1">
-        <v>4.3988813591688798E-8</v>
+        <v>6.9288776485043599E-5</v>
       </c>
       <c r="L38" s="1">
-        <v>7.3314699705320998E-9</v>
+        <v>9.8987387170350904E-6</v>
       </c>
       <c r="M38" s="1">
-        <v>5.1277911354588703E-7</v>
+        <v>9.17383108371686E-4</v>
       </c>
       <c r="N38" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>13</v>
@@ -2920,610 +2974,1006 @@
         <v>6.5</v>
       </c>
       <c r="E39" s="1">
-        <v>4.7745979765482195E-10</v>
+        <v>2.8479859951516799E-7</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G39">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="H39">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="I39">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J39">
-        <v>11.828968253968201</v>
+        <v>7.1297270955165697</v>
       </c>
       <c r="K39" s="1">
-        <v>8.2600550510569803E-8</v>
+        <v>1.12773901999818E-4</v>
       </c>
       <c r="L39" s="1">
-        <v>1.1800077856326299E-8</v>
-      </c>
-      <c r="M39" s="1">
-        <v>8.25323364517621E-7</v>
+        <v>1.40975306760008E-5</v>
+      </c>
+      <c r="M39">
+        <v>1.30651357527583E-3</v>
       </c>
       <c r="N39" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1">
-        <v>7.7317938033381302E-10</v>
+        <v>1.22722788351172E-6</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G40">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="H40">
-        <v>131</v>
+        <v>465</v>
       </c>
       <c r="I40">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J40">
-        <v>6.7514721919302003</v>
+        <v>3.8213921901528001</v>
       </c>
       <c r="K40" s="1">
-        <v>1.3376002894194201E-7</v>
+        <v>4.85864469699559E-4</v>
       </c>
       <c r="L40" s="1">
-        <v>1.6720004099718699E-8</v>
-      </c>
-      <c r="M40" s="1">
-        <v>1.16943381275489E-6</v>
+        <v>5.3998026874515702E-5</v>
+      </c>
+      <c r="M40">
+        <v>5.0043625916533496E-3</v>
       </c>
       <c r="N40" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="E41" s="1">
-        <v>1.8421968636974299E-9</v>
+        <v>1.5218236670397701E-6</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G41">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="H41">
-        <v>104</v>
+        <v>518</v>
       </c>
       <c r="I41">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J41">
-        <v>7.5593406593406502</v>
+        <v>3.60192034139402</v>
       </c>
       <c r="K41" s="1">
-        <v>3.1870000272160502E-7</v>
+        <v>6.0246107812511596E-4</v>
       </c>
       <c r="L41" s="1">
-        <v>3.5411117491072903E-8</v>
-      </c>
-      <c r="M41" s="1">
-        <v>2.4767313389709999E-6</v>
+        <v>6.0264217214774899E-5</v>
+      </c>
+      <c r="M41">
+        <v>5.5850928580359503E-3</v>
       </c>
       <c r="N41" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>6.5</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1">
-        <v>3.8476477679275302E-9</v>
+        <v>1.98434046713999E-28</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G42">
         <v>140</v>
       </c>
       <c r="H42">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="I42">
         <v>6879</v>
       </c>
       <c r="J42">
-        <v>9.9806919642857093</v>
+        <v>14.6947930574098</v>
       </c>
       <c r="K42" s="1">
-        <v>6.6564284151304701E-7</v>
+        <v>3.4329090081521901E-26</v>
       </c>
       <c r="L42" s="1">
-        <v>6.6564306385146303E-8</v>
+        <v>3.4329090081521901E-26</v>
       </c>
       <c r="M42" s="1">
-        <v>4.6556537991923103E-6</v>
+        <v>2.40105196523939E-24</v>
       </c>
       <c r="N42" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1">
-        <v>6.2646081529880197E-10</v>
+        <v>3.40291447539417E-15</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G43">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H43">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="I43">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J43">
-        <v>13.8779151268</v>
+        <v>6.0661375661375603</v>
       </c>
       <c r="K43" s="1">
-        <v>1.591210234686E-7</v>
+        <v>5.9541260810647105E-13</v>
       </c>
       <c r="L43" s="1">
-        <v>1.59747507901194E-7</v>
+        <v>2.9435210212159599E-13</v>
       </c>
       <c r="M43" s="1">
-        <v>1.5160351730230999E-5</v>
+        <v>2.0587632576134699E-11</v>
       </c>
       <c r="N43" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1">
-        <v>1.23839600169122E-8</v>
+        <v>8.65272954102792E-13</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G44">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="I44">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J44">
-        <v>58.485499462942997</v>
+        <v>10.1660098522167</v>
       </c>
       <c r="K44" s="1">
-        <v>3.1455209043018599E-6</v>
+        <v>1.4969825379296199E-10</v>
       </c>
       <c r="L44" s="1">
-        <v>1.5789549021563099E-6</v>
+        <v>4.5599987597402597E-11</v>
       </c>
       <c r="M44" s="1">
-        <v>1.4984591620463799E-4</v>
+        <v>3.1893632943848102E-9</v>
       </c>
       <c r="N44" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1">
-        <v>2.0541465713216599E-5</v>
+        <v>1.0543349733503501E-12</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="G45">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H45">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="I45">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J45">
-        <v>17.058270676691698</v>
-      </c>
-      <c r="K45">
-        <v>5.2039979209400596E-3</v>
-      </c>
-      <c r="L45">
-        <v>1.7460245856234099E-3</v>
-      </c>
-      <c r="M45">
-        <v>0.16570115675328001</v>
+        <v>10.050487012987</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1.8240753352216599E-10</v>
+      </c>
+      <c r="L45" s="1">
+        <v>4.5599987597402597E-11</v>
+      </c>
+      <c r="M45" s="1">
+        <v>3.1893632943848102E-9</v>
       </c>
       <c r="N45" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="E46" s="1">
-        <v>2.76235506726024E-5</v>
+        <v>2.7502392889294099E-12</v>
       </c>
       <c r="F46" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="G46">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H46">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I46">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J46">
-        <v>26.243493348756498</v>
-      </c>
-      <c r="K46">
-        <v>6.9919207645860997E-3</v>
-      </c>
-      <c r="L46">
-        <v>1.7610013553784E-3</v>
-      </c>
-      <c r="M46">
-        <v>0.167122481569244</v>
+        <v>13.161352040816301</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4.7579229445204801E-10</v>
+      </c>
+      <c r="L46" s="1">
+        <v>9.5158279396957597E-11</v>
+      </c>
+      <c r="M46" s="1">
+        <v>6.6555790792091702E-9</v>
       </c>
       <c r="N46" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="E47" s="1">
-        <v>1.0089092662688401E-4</v>
+        <v>2.5427063481614203E-10</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="G47">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="I47">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J47">
-        <v>38.990332975295303</v>
-      </c>
-      <c r="K47">
-        <v>2.5301988913829801E-2</v>
-      </c>
-      <c r="L47">
-        <v>5.1454372579711298E-3</v>
-      </c>
-      <c r="M47">
-        <v>0.48831208487412298</v>
+        <v>7.8802560646900197</v>
+      </c>
+      <c r="K47" s="1">
+        <v>4.3988813591688798E-8</v>
+      </c>
+      <c r="L47" s="1">
+        <v>7.3314699705320998E-9</v>
+      </c>
+      <c r="M47" s="1">
+        <v>5.1277911354588703E-7</v>
       </c>
       <c r="N47" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="E48" s="1">
-        <v>1.5970829547161801E-4</v>
+        <v>4.7745979765482195E-10</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="G48">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H48">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I48">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J48">
-        <v>34.116541353383397</v>
-      </c>
-      <c r="K48">
-        <v>3.9757235451254903E-2</v>
-      </c>
-      <c r="L48">
-        <v>6.7876025575437796E-3</v>
-      </c>
-      <c r="M48">
-        <v>0.64415679173552798</v>
+        <v>11.828968253968201</v>
+      </c>
+      <c r="K48" s="1">
+        <v>8.2600550510569803E-8</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1.1800077856326299E-8</v>
+      </c>
+      <c r="M48" s="1">
+        <v>8.25323364517621E-7</v>
       </c>
       <c r="N48" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E49" s="1">
-        <v>7.7326336343172303E-4</v>
+        <v>7.7317938033381302E-10</v>
       </c>
       <c r="F49" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="G49">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H49">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="I49">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J49">
-        <v>20.994794679005199</v>
-      </c>
-      <c r="K49">
-        <v>0.17838623891816399</v>
-      </c>
-      <c r="L49">
-        <v>2.19980171741474E-2</v>
-      </c>
-      <c r="M49">
-        <v>2.0876549631936001</v>
+        <v>6.7514721919302003</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1.3376002894194201E-7</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1.6720004099718699E-8</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1.16943381275489E-6</v>
       </c>
       <c r="N49" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1">
-        <v>7.7326336343172303E-4</v>
+        <v>1.8421968636974299E-9</v>
       </c>
       <c r="F50" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="G50">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H50">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="I50">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J50">
-        <v>20.994794679005199</v>
-      </c>
-      <c r="K50">
-        <v>0.17838623891816399</v>
-      </c>
-      <c r="L50">
-        <v>2.19980171741474E-2</v>
-      </c>
-      <c r="M50">
-        <v>2.0876549631936001</v>
+        <v>7.5593406593406502</v>
+      </c>
+      <c r="K50" s="1">
+        <v>3.1870000272160502E-7</v>
+      </c>
+      <c r="L50" s="1">
+        <v>3.5411117491072903E-8</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2.4767313389709999E-6</v>
       </c>
       <c r="N50" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="E51" s="1">
-        <v>8.7408215802867802E-4</v>
+        <v>3.8476477679275302E-9</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="G51">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H51">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I51">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J51">
-        <v>11.3721804511278</v>
-      </c>
-      <c r="K51">
-        <v>0.199175898943595</v>
-      </c>
-      <c r="L51">
-        <v>2.19980171741474E-2</v>
-      </c>
-      <c r="M51">
-        <v>2.0876549631936001</v>
+        <v>9.9806919642857093</v>
+      </c>
+      <c r="K51" s="1">
+        <v>6.6564284151304701E-7</v>
+      </c>
+      <c r="L51" s="1">
+        <v>6.6564306385146303E-8</v>
+      </c>
+      <c r="M51" s="1">
+        <v>4.6556537991923103E-6</v>
       </c>
       <c r="N51" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D52">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1">
-        <v>8.7408215802867802E-4</v>
+        <v>6.2646081529880197E-10</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="G52">
         <v>133</v>
       </c>
       <c r="H52">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I52">
         <v>9075</v>
       </c>
       <c r="J52">
+        <v>13.8779151268</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1.591210234686E-7</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1.59747507901194E-7</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1.5160351730230999E-5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1.23839600169122E-8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53">
+        <v>133</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>9075</v>
+      </c>
+      <c r="J53">
+        <v>58.485499462942997</v>
+      </c>
+      <c r="K53" s="1">
+        <v>3.1455209043018599E-6</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1.5789549021563099E-6</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1.4984591620463799E-4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2.0541465713216599E-5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54">
+        <v>133</v>
+      </c>
+      <c r="H54">
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <v>9075</v>
+      </c>
+      <c r="J54">
+        <v>17.058270676691698</v>
+      </c>
+      <c r="K54">
+        <v>5.2039979209400596E-3</v>
+      </c>
+      <c r="L54">
+        <v>1.7460245856234099E-3</v>
+      </c>
+      <c r="M54">
+        <v>0.16570115675328001</v>
+      </c>
+      <c r="N54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>2.5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2.76235506726024E-5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55">
+        <v>133</v>
+      </c>
+      <c r="H55">
+        <v>13</v>
+      </c>
+      <c r="I55">
+        <v>9075</v>
+      </c>
+      <c r="J55">
+        <v>26.243493348756498</v>
+      </c>
+      <c r="K55">
+        <v>6.9919207645860997E-3</v>
+      </c>
+      <c r="L55">
+        <v>1.7610013553784E-3</v>
+      </c>
+      <c r="M55">
+        <v>0.167122481569244</v>
+      </c>
+      <c r="N55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1.0089092662688401E-4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56">
+        <v>133</v>
+      </c>
+      <c r="H56">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>9075</v>
+      </c>
+      <c r="J56">
+        <v>38.990332975295303</v>
+      </c>
+      <c r="K56">
+        <v>2.5301988913829801E-2</v>
+      </c>
+      <c r="L56">
+        <v>5.1454372579711298E-3</v>
+      </c>
+      <c r="M56">
+        <v>0.48831208487412298</v>
+      </c>
+      <c r="N56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.5970829547161801E-4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57">
+        <v>133</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>9075</v>
+      </c>
+      <c r="J57">
+        <v>34.116541353383397</v>
+      </c>
+      <c r="K57">
+        <v>3.9757235451254903E-2</v>
+      </c>
+      <c r="L57">
+        <v>6.7876025575437796E-3</v>
+      </c>
+      <c r="M57">
+        <v>0.64415679173552798</v>
+      </c>
+      <c r="N57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>7.7326336343172303E-4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58">
+        <v>133</v>
+      </c>
+      <c r="H58">
+        <v>13</v>
+      </c>
+      <c r="I58">
+        <v>9075</v>
+      </c>
+      <c r="J58">
+        <v>20.994794679005199</v>
+      </c>
+      <c r="K58">
+        <v>0.17838623891816399</v>
+      </c>
+      <c r="L58">
+        <v>2.19980171741474E-2</v>
+      </c>
+      <c r="M58">
+        <v>2.0876549631936001</v>
+      </c>
+      <c r="N58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7.7326336343172303E-4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59">
+        <v>133</v>
+      </c>
+      <c r="H59">
+        <v>13</v>
+      </c>
+      <c r="I59">
+        <v>9075</v>
+      </c>
+      <c r="J59">
+        <v>20.994794679005199</v>
+      </c>
+      <c r="K59">
+        <v>0.17838623891816399</v>
+      </c>
+      <c r="L59">
+        <v>2.19980171741474E-2</v>
+      </c>
+      <c r="M59">
+        <v>2.0876549631936001</v>
+      </c>
+      <c r="N59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>2.5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>8.7408215802867802E-4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60">
+        <v>133</v>
+      </c>
+      <c r="H60">
+        <v>30</v>
+      </c>
+      <c r="I60">
+        <v>9075</v>
+      </c>
+      <c r="J60">
         <v>11.3721804511278</v>
       </c>
-      <c r="K52">
+      <c r="K60">
         <v>0.199175898943595</v>
       </c>
-      <c r="L52">
+      <c r="L60">
         <v>2.19980171741474E-2</v>
       </c>
-      <c r="M52">
+      <c r="M60">
         <v>2.0876549631936001</v>
       </c>
-      <c r="N52" t="s">
-        <v>120</v>
+      <c r="N60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>2.5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>8.7408215802867802E-4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61">
+        <v>133</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61">
+        <v>9075</v>
+      </c>
+      <c r="J61">
+        <v>11.3721804511278</v>
+      </c>
+      <c r="K61">
+        <v>0.199175898943595</v>
+      </c>
+      <c r="L61">
+        <v>2.19980171741474E-2</v>
+      </c>
+      <c r="M61">
+        <v>2.0876549631936001</v>
+      </c>
+      <c r="N61" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N52">
+  <sortState ref="A2:N61">
     <sortCondition ref="N1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DAVID/TNF.DAVID_toJoin.xlsx
+++ b/DAVID/TNF.DAVID_toJoin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\DAVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B7BDED29-8063-4FD1-90A8-3C697B85A582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{025A13D8-36E0-443A-A7A3-7F993746AF4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TNF.DAVID" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1277,15 +1277,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
